--- a/Przypadek_testowy_Trello.xlsx
+++ b/Przypadek_testowy_Trello.xlsx
@@ -66,9 +66,6 @@
     <t>Krok 3</t>
   </si>
   <si>
-    <t>Krok 4</t>
-  </si>
-  <si>
     <t>wejście na istniejące konto użytkownika https://trello.com/u/annakowalska111/boards</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>manualne</t>
+  </si>
+  <si>
+    <t>Krok 2</t>
   </si>
 </sst>
 </file>
@@ -352,70 +352,70 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +714,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75"/>
@@ -723,164 +723,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>31</v>
+      <c r="L2" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="141.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>32</v>
+      <c r="K3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="110.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="174" thickBot="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Przypadek_testowy_Trello.xlsx
+++ b/Przypadek_testowy_Trello.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Przypadek testowy</t>
   </si>
@@ -60,12 +60,6 @@
     <t>konto użytkownika musi być stworzone i aktywne</t>
   </si>
   <si>
-    <t>Krok 1</t>
-  </si>
-  <si>
-    <t>Krok 3</t>
-  </si>
-  <si>
     <t>wejście na istniejące konto użytkownika https://trello.com/u/annakowalska111/boards</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>utworzenie nowej przestrzeni roboczej przez kliknięcie w pole: + Utwórz Przestrzeń Roboczą</t>
   </si>
   <si>
-    <t>wyświetlenie się formularza tworzonej Przestrzenie Roboczej</t>
-  </si>
-  <si>
     <t>formularz wyświetlił się</t>
   </si>
   <si>
@@ -114,14 +105,95 @@
     <t>manualne</t>
   </si>
   <si>
-    <t>Krok 2</t>
+    <t>ANN123</t>
+  </si>
+  <si>
+    <t>utworzenie pierwszej Tablicy użytkownika w aplikacji Trello</t>
+  </si>
+  <si>
+    <t>przejście przez poszczególne czynności pozwalające nowemu użytkownikowi na utworzenie pierwszej Tablicy w nowej Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>użytkownik musi posiadać Przestrzeń Roboczą</t>
+  </si>
+  <si>
+    <t>wejście na istniejące konto użytkownika https://trello.com/u/annakowalska111/boards</t>
+  </si>
+  <si>
+    <t>strona Przestrzeni Roboczej wyświetliła się</t>
+  </si>
+  <si>
+    <t>wybranie Przestrzeni Roboczej użytkownika</t>
+  </si>
+  <si>
+    <t>strona otworzyła się</t>
+  </si>
+  <si>
+    <t>wybranie opcji Tablice z listy menu w utworzonej Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>zakładka pojawiła się</t>
+  </si>
+  <si>
+    <t>pojawienie się zakładki personalizującej tablicę</t>
+  </si>
+  <si>
+    <t>kliknięcie w pole: Utwórz swoją pierwszą tablicę</t>
+  </si>
+  <si>
+    <t>pole: Utwórz zostało aktywowane</t>
+  </si>
+  <si>
+    <t>aktywacja pola: Utwórz</t>
+  </si>
+  <si>
+    <t>wybranie tła tablicy, nadanie tytułu tablicy, ustawienie widoczności i aktywacja pola Utwórz po uzupełnieniu podanych pól</t>
+  </si>
+  <si>
+    <t>tablica pojawiła się</t>
+  </si>
+  <si>
+    <t>wyświetlenie się gotowej do użytkowania tablicy</t>
+  </si>
+  <si>
+    <t>kliknięcie w pole Utwórz</t>
+  </si>
+  <si>
+    <t>wyświetlenie się nowo utworzonej Tablicy z poprawną nazwą Przestrzeni Roboczej, z prawidłowym tłem oraz z prawidłowo nadaną nazwą Tablicy</t>
+  </si>
+  <si>
+    <t>krok 1</t>
+  </si>
+  <si>
+    <t>krok 2</t>
+  </si>
+  <si>
+    <t>krok 3</t>
+  </si>
+  <si>
+    <t>krok 4</t>
+  </si>
+  <si>
+    <t>krok 5</t>
+  </si>
+  <si>
+    <t>krok 6</t>
+  </si>
+  <si>
+    <t>wyświetlenie strony Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>wyświetlenie formularza tworzonej Przestrzenie Roboczej</t>
+  </si>
+  <si>
+    <t>otworzenie się strony z polem: Utwórz swoją pierwszą tablicę</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +243,36 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -186,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -198,7 +300,9 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -208,9 +312,103 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -219,11 +417,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -232,121 +432,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,68 +504,97 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75"/>
@@ -738,155 +914,322 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="141.75">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="C3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="110.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" ht="174" thickBot="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="175.5" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="141.75">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="110.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" ht="174" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="63.75" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="94.5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" ht="71.25" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" ht="144.75" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" ht="63.75" thickBot="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Przypadek_testowy_Trello.xlsx
+++ b/Przypadek_testowy_Trello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="24720" windowHeight="12600"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>Przypadek testowy</t>
   </si>
@@ -60,12 +60,6 @@
     <t>konto użytkownika musi być stworzone i aktywne</t>
   </si>
   <si>
-    <t>Krok 1</t>
-  </si>
-  <si>
-    <t>Krok 3</t>
-  </si>
-  <si>
     <t>wejście na istniejące konto użytkownika https://trello.com/u/annakowalska111/boards</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>utworzenie nowej przestrzeni roboczej przez kliknięcie w pole: + Utwórz Przestrzeń Roboczą</t>
   </si>
   <si>
-    <t>wyświetlenie się formularza tworzonej Przestrzenie Roboczej</t>
-  </si>
-  <si>
     <t>formularz wyświetlił się</t>
   </si>
   <si>
@@ -114,7 +105,88 @@
     <t>manualne</t>
   </si>
   <si>
-    <t>Krok 2</t>
+    <t>krok 1</t>
+  </si>
+  <si>
+    <t>krok 2</t>
+  </si>
+  <si>
+    <t>wyświetlenie formularza tworzonej Przestrzenie Roboczej</t>
+  </si>
+  <si>
+    <t>krok 3</t>
+  </si>
+  <si>
+    <t>ANN123</t>
+  </si>
+  <si>
+    <t>utworzenie pierwszej Tablicy użytkownika w aplikacji Trello</t>
+  </si>
+  <si>
+    <t>przejście przez poszczególne czynności pozwalające nowemu użytkownikowi na utworzenie pierwszej Tablicy w nowej Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>użytkownik musi posiadać Przestrzeń Roboczą</t>
+  </si>
+  <si>
+    <t>wejście na istniejące konto użytkownika https://trello.com/u/annakowalska111/boards</t>
+  </si>
+  <si>
+    <t>wyświetlenie się nowo utworzonej Tablicy z poprawną nazwą Przestrzeni Roboczej, z prawidłowym tłem oraz z prawidłowo nadaną nazwą Tablicy</t>
+  </si>
+  <si>
+    <t>wybranie Przestrzeni Roboczej użytkownika</t>
+  </si>
+  <si>
+    <t>wyświetlenie strony Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>strona Przestrzeni Roboczej wyświetliła się</t>
+  </si>
+  <si>
+    <t>wybranie opcji Tablice z listy menu w utworzonej Przestrzeni Roboczej</t>
+  </si>
+  <si>
+    <t>otworzenie się strony z polem: Utwórz swoją pierwszą tablicę</t>
+  </si>
+  <si>
+    <t>strona otworzyła się</t>
+  </si>
+  <si>
+    <t>krok 4</t>
+  </si>
+  <si>
+    <t>kliknięcie w pole: Utwórz swoją pierwszą tablicę</t>
+  </si>
+  <si>
+    <t>pojawienie się zakładki personalizującej tablicę</t>
+  </si>
+  <si>
+    <t>zakładka pojawiła się</t>
+  </si>
+  <si>
+    <t>krok 5</t>
+  </si>
+  <si>
+    <t>wybranie tła tablicy, nadanie tytułu tablicy, ustawienie widoczności i aktywacja pola Utwórz po uzupełnieniu podanych pól</t>
+  </si>
+  <si>
+    <t>aktywacja pola: Utwórz</t>
+  </si>
+  <si>
+    <t>pole: Utwórz zostało aktywowane</t>
+  </si>
+  <si>
+    <t>krok 6</t>
+  </si>
+  <si>
+    <t>kliknięcie w pole Utwórz</t>
+  </si>
+  <si>
+    <t>wyświetlenie się gotowej do użytkowania tablicy</t>
+  </si>
+  <si>
+    <t>tablica pojawiła się</t>
   </si>
 </sst>
 </file>
@@ -172,21 +244,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -195,10 +261,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -208,9 +285,97 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -219,11 +384,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -232,10 +399,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -245,8 +429,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -256,7 +444,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -264,80 +454,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -346,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,6 +473,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -369,53 +488,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="15.75"/>
@@ -722,11 +862,11 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -736,43 +876,44 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="141.75">
@@ -780,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
@@ -795,22 +936,22 @@
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="110.25">
@@ -821,16 +962,16 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="17"/>
@@ -843,49 +984,171 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+    <row r="6" spans="1:12" ht="173.25">
+      <c r="A6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+    <row r="7" spans="1:12" ht="63">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
+    <row r="8" spans="1:12" ht="94.5">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="63">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="141.75">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="63.75" thickBot="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
